--- a/index/config_test.xlsx
+++ b/index/config_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jan.Eggers@hr.de/Nextcloud2/hr-DDJ/projekte/ltwhe23/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3F4B16-721E-D342-A766-BD919B053BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415BCB4B-3D56-4C41-9CDD-DE00E6D6EDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1420" windowWidth="27840" windowHeight="16740" xr2:uid="{881A6246-7B81-D549-B9EF-53B40A95B016}"/>
+    <workbookView xWindow="2400" yWindow="1700" windowWidth="27840" windowHeight="16740" xr2:uid="{881A6246-7B81-D549-B9EF-53B40A95B016}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Gemeindeflächen, Quintile, DW-Ids</t>
   </si>
   <si>
-    <t>2023-10-08  18:00:00</t>
-  </si>
-  <si>
     <t>als String eintragen!</t>
   </si>
   <si>
@@ -176,7 +173,25 @@
     <t>kandidaten_alle_df</t>
   </si>
   <si>
-    <t>https://hessen-ltw23-presse.23degrees.eu/wahlergebnisse-ltw23.csv?token=GkvMcKY0jiCcVgnuvybqA-i5UFQCFYY-sCuhlk-65bc&amp;expires=1705334918</t>
+    <t>ikHna</t>
+  </si>
+  <si>
+    <t>J40BL</t>
+  </si>
+  <si>
+    <t>hessen_id</t>
+  </si>
+  <si>
+    <t>dw-ID für Landesstimmen Hessen</t>
+  </si>
+  <si>
+    <t>testdaten/testdaten.csv</t>
+  </si>
+  <si>
+    <t>2023-10-07  9:00:00</t>
+  </si>
+  <si>
+    <t>BcFTu</t>
   </si>
 </sst>
 </file>
@@ -227,8 +242,8 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -544,11 +559,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC66688-1B0B-C34D-BE3D-0BF294384AA9}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,8 +599,8 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -596,10 +611,10 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -636,10 +651,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -654,11 +669,17 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -751,6 +772,17 @@
       </c>
       <c r="C21" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/index/config_test.xlsx
+++ b/index/config_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jan.Eggers@hr.de/Nextcloud2/hr-DDJ/projekte/ltwhe23/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415BCB4B-3D56-4C41-9CDD-DE00E6D6EDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894F9A4E-FD52-6044-B616-62D6C991831E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="1700" windowWidth="27840" windowHeight="16740" xr2:uid="{881A6246-7B81-D549-B9EF-53B40A95B016}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t>BcFTu</t>
+  </si>
+  <si>
+    <t>zqN1z</t>
+  </si>
+  <si>
+    <t>Kreis Direkt 5 stärkste</t>
+  </si>
+  <si>
+    <t>Gemeinde direkt</t>
+  </si>
+  <si>
+    <t>Kreis Landesstimmen</t>
   </si>
 </sst>
 </file>
@@ -563,7 +575,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,6 +684,9 @@
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -680,10 +695,19 @@
       <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
